--- a/translation/actor.xlsx
+++ b/translation/actor.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgCgHipblzrhTLcQ3xHHEQdz8RvYw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mimWU9c50tBlyrfRi9qXS5sv7CKZg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t>高杉</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Young boy</t>
   </si>
   <si>
-    <t>어린 아이</t>
+    <t>남자 아이</t>
   </si>
   <si>
     <t>署長</t>
@@ -120,7 +120,7 @@
     <t>Resident</t>
   </si>
   <si>
-    <t>레지던트</t>
+    <t>파출소 순경</t>
   </si>
   <si>
     <t>知恵</t>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Military Officer</t>
+  </si>
+  <si>
+    <t>장교</t>
   </si>
   <si>
     <t>刑事</t>
@@ -484,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -492,6 +495,10 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -509,11 +516,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -743,7 +753,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -754,7 +764,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -765,7 +775,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -787,7 +797,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -798,7 +808,7 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -809,7 +819,7 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -820,7 +830,7 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -831,7 +841,7 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -842,7 +852,7 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -853,12 +863,12 @@
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -875,7 +885,7 @@
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -886,7 +896,7 @@
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -897,7 +907,7 @@
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -908,7 +918,7 @@
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -919,7 +929,7 @@
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -930,7 +940,7 @@
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -941,7 +951,7 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -952,7 +962,7 @@
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -963,7 +973,7 @@
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -974,7 +984,7 @@
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -985,7 +995,7 @@
       <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -996,7 +1006,7 @@
       <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1007,7 +1017,7 @@
       <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1018,291 +1028,294 @@
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="2" t="s">
         <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>132</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="2" t="s">
         <v>138</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="2" t="s">
         <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>147</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="2" t="s">
         <v>150</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="2" t="s">
         <v>153</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1"/>
